--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_31.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_7_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1278185.320721948</v>
+        <v>1301609.66933341</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17290971.53779842</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484442</v>
+        <v>278692.0725916865</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6830577.570849664</v>
+        <v>6936478.693208897</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>391.5755379917272</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -668,13 +668,13 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>285.8594785580452</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -753,7 +753,7 @@
         <v>84.53123883647795</v>
       </c>
       <c r="H3" t="n">
-        <v>41.31829566194966</v>
+        <v>41.31829566194965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -835,7 +835,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>127.90408679447</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>223.2058243859339</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>320.0331481255878</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>334.2401657838507</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1060,19 +1060,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>118.2612732071454</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>8.129390960577833</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>248.2979378436725</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
@@ -1196,10 +1196,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>267.3231022671708</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>163.293878347428</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1370,7 +1370,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>165.7499153537896</v>
+        <v>433.7610480884131</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1388,7 +1388,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314378</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>82.8153550780014</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1433,7 +1433,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>46.16917954999322</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>18.05677735225723</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1588,7 +1588,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1619,13 +1619,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H14" t="n">
-        <v>101.0430753545952</v>
+        <v>286.2388530112178</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314378</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.8153550780014</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1822,10 +1822,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>56.72042565247856</v>
       </c>
       <c r="W16" t="n">
-        <v>148.8597651552992</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1859,7 +1859,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
-        <v>161.0503051193344</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2062,7 +2062,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>210.6374024238902</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2096,7 +2096,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2242,10 +2242,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>102.8562685532374</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2296,7 +2296,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>144.4937753855482</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>120.1838601509836</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2722,13 +2722,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>35.34780583513064</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2843,7 +2843,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556927</v>
       </c>
       <c r="U29" t="n">
         <v>256.6300796561533</v>
@@ -2962,7 +2962,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170436</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225723</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225831</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3281,7 +3281,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -3436,7 +3436,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170439</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3566,7 +3566,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -3670,7 +3670,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>174.9399834978621</v>
       </c>
       <c r="G40" t="n">
         <v>163.9353622244306</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
         <v>157.6489550149833</v>
@@ -3721,10 +3721,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>128.5829343862779</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>81.01098805494502</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3749,7 +3749,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>417.200728732218</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -3758,7 +3758,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -3901,10 +3901,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>3.423392126084918</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>54.18430635300722</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3913,7 +3913,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>157.6489550149833</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800599</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3983,7 +3983,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>161.4258646586659</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>18.05677735225706</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>557.9336779278854</v>
+        <v>804.4522061243825</v>
       </c>
       <c r="C2" t="n">
-        <v>523.8316091517128</v>
+        <v>408.9213596680925</v>
       </c>
       <c r="D2" t="n">
-        <v>491.9622283665614</v>
+        <v>377.0519788829411</v>
       </c>
       <c r="E2" t="n">
-        <v>462.2278875652606</v>
+        <v>347.3176380816403</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>323.4906125312521</v>
       </c>
       <c r="H2" t="n">
         <v>34.36045797446834</v>
@@ -4328,22 +4328,22 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="P2" t="n">
         <v>1107.976466382457</v>
@@ -4355,25 +4355,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V2" t="n">
-        <v>1408.436482041988</v>
+        <v>1250.914606198081</v>
       </c>
       <c r="W2" t="n">
-        <v>1003.581027453021</v>
+        <v>1250.099555649518</v>
       </c>
       <c r="X2" t="n">
-        <v>988.4789680727357</v>
+        <v>1234.997496269233</v>
       </c>
       <c r="Y2" t="n">
-        <v>580.1928443723891</v>
+        <v>1230.75177660929</v>
       </c>
     </row>
     <row r="3">
@@ -4386,7 +4386,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
         <v>338.5686635760967</v>
@@ -4395,10 +4395,10 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539589</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
         <v>33.94366860160834</v>
@@ -4413,19 +4413,19 @@
         <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1224.671464618085</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>858.7506050139928</v>
+        <v>947.4105542393174</v>
       </c>
       <c r="C4" t="n">
-        <v>686.1888934972177</v>
+        <v>774.8488427225424</v>
       </c>
       <c r="D4" t="n">
-        <v>520.3109006987404</v>
+        <v>608.9708499240651</v>
       </c>
       <c r="E4" t="n">
-        <v>350.5528969494776</v>
+        <v>439.2128461748023</v>
       </c>
       <c r="F4" t="n">
-        <v>173.8458429112338</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4489,19 +4489,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L4" t="n">
-        <v>395.2818083374338</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="M4" t="n">
-        <v>815.3347072823371</v>
+        <v>540.5762527112014</v>
       </c>
       <c r="N4" t="n">
-        <v>815.3347072823371</v>
+        <v>960.6291516561047</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1380.298400881886</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4516,22 +4516,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1697.183430080417</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>1697.183430080417</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="V4" t="n">
-        <v>1567.987382813276</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="W4" t="n">
-        <v>1295.960978399567</v>
+        <v>1172.870982911978</v>
       </c>
       <c r="X4" t="n">
-        <v>1050.56922373298</v>
+        <v>947.4105542393174</v>
       </c>
       <c r="Y4" t="n">
-        <v>1050.56922373298</v>
+        <v>947.4105542393174</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>442.6402219259112</v>
+        <v>1668.990785889678</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1634.888717113505</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>1198.97893228795</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>765.2041874462451</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>741.3771618958569</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.84917596233701</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947702</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>485.6870740423949</v>
       </c>
       <c r="K5" t="n">
-        <v>267.8706684926505</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="L5" t="n">
-        <v>267.8706684926505</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="M5" t="n">
-        <v>267.8706684926505</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>1109.787858087173</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1181.865694717421</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1805.9664787622</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2352.465264720794</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657688</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657688</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657688</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2437.967455657688</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2437.152405109125</v>
       </c>
       <c r="X5" t="n">
-        <v>1277.225916111166</v>
+        <v>2099.536076034528</v>
       </c>
       <c r="Y5" t="n">
-        <v>868.939792410819</v>
+        <v>2095.290356374586</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>92.16803877326456</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947702</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993462</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>401.0543847161469</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1025.155168760925</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1024.341879988165</v>
+        <v>773.6949256906669</v>
       </c>
       <c r="C7" t="n">
-        <v>851.7801684713901</v>
+        <v>601.1332141738918</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>435.2552213754145</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>435.2552213754145</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>258.5481673371708</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947702</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.0120717541669</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>411.7705263253025</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>829.9804080932635</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2151.392327657602</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2353.426554609519</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473851</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2275.739883052306</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1997.306882305411</v>
       </c>
       <c r="V7" t="n">
-        <v>1697.183430080417</v>
+        <v>1710.351374175842</v>
       </c>
       <c r="W7" t="n">
-        <v>1688.971924059632</v>
+        <v>1438.324969762133</v>
       </c>
       <c r="X7" t="n">
-        <v>1443.580169393044</v>
+        <v>1192.933215095546</v>
       </c>
       <c r="Y7" t="n">
-        <v>1216.160498707152</v>
+        <v>965.5135444096541</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.8932738874814</v>
+        <v>389.6379614873604</v>
       </c>
       <c r="C8" t="n">
-        <v>119.7912051113087</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>87.92182432615731</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>58.18748352485655</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>34.36045797446834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K8" t="n">
-        <v>453.9965675465116</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L8" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M8" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N8" t="n">
-        <v>874.0494664914149</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O8" t="n">
-        <v>1294.102365436318</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>1697.183430080417</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1477.116202953456</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>1217.893900270473</v>
+        <v>2410.838523748444</v>
       </c>
       <c r="V8" t="n">
-        <v>855.2769502042993</v>
+        <v>2048.221573682271</v>
       </c>
       <c r="W8" t="n">
-        <v>450.4214956153326</v>
+        <v>1643.366119093304</v>
       </c>
       <c r="X8" t="n">
-        <v>180.3981599919276</v>
+        <v>1224.223655672615</v>
       </c>
       <c r="Y8" t="n">
-        <v>176.1524403319851</v>
+        <v>815.9375319722682</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>804.6185656731816</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1113.00182921349</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>940.4401176967148</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>774.5621248982375</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>604.8041211489747</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>308.7021231727439</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>726.9120049407049</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>726.9120049407049</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1697.183430080417</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1697.183430080417</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1697.183430080417</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1697.183430080417</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1532.240118618369</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1304.820447932477</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2252.656868168567</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C11" t="n">
-        <v>2085.232711245548</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1649.322926419992</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>787.680751987495</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397517</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J11" t="n">
-        <v>531.9906641340331</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K11" t="n">
-        <v>1366.340956092211</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L11" t="n">
-        <v>1366.340956092211</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M11" t="n">
-        <v>1366.340956092211</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N11" t="n">
-        <v>2312.656441940405</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O11" t="n">
-        <v>3292.836108510712</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P11" t="n">
-        <v>4121.145983344108</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.644769302702</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T11" t="n">
-        <v>4533.079733112634</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U11" t="n">
-        <v>4273.857430429651</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>3911.240480363477</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W11" t="n">
-        <v>3506.385025774511</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X11" t="n">
-        <v>3087.242562353822</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.956438653475</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I12" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>965.4711828007306</v>
+        <v>1062.363260807472</v>
       </c>
       <c r="C13" t="n">
-        <v>792.9094712839556</v>
+        <v>889.8015492906967</v>
       </c>
       <c r="D13" t="n">
-        <v>627.0314784854784</v>
+        <v>723.9235564922194</v>
       </c>
       <c r="E13" t="n">
-        <v>457.2734747362156</v>
+        <v>554.1655527429566</v>
       </c>
       <c r="F13" t="n">
-        <v>280.5664206979718</v>
+        <v>377.4584987047128</v>
       </c>
       <c r="G13" t="n">
-        <v>114.9751457237994</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>114.9751457237994</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>458.0741164169406</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365815</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S13" t="n">
-        <v>2713.395586583915</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T13" t="n">
-        <v>2467.51614016237</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U13" t="n">
-        <v>2189.083139415475</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V13" t="n">
-        <v>1902.127631285906</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W13" t="n">
-        <v>1630.101226872197</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="X13" t="n">
-        <v>1384.709472205609</v>
+        <v>1481.601550212351</v>
       </c>
       <c r="Y13" t="n">
-        <v>1157.289801519718</v>
+        <v>1254.181879526459</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2336.30874198473</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C14" t="n">
-        <v>1898.166269168154</v>
+        <v>2090.757574835214</v>
       </c>
       <c r="D14" t="n">
-        <v>1462.256484342598</v>
+        <v>1654.847790009659</v>
       </c>
       <c r="E14" t="n">
-        <v>1028.481739500893</v>
+        <v>1221.073045167954</v>
       </c>
       <c r="F14" t="n">
-        <v>600.6143099101009</v>
+        <v>793.2056155771616</v>
       </c>
       <c r="G14" t="n">
-        <v>199.2164785333648</v>
+        <v>391.8077842004254</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397517</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J14" t="n">
-        <v>96.73597668111518</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K14" t="n">
-        <v>931.0862686392932</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L14" t="n">
-        <v>1356.079523257015</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M14" t="n">
-        <v>1356.079523257015</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N14" t="n">
-        <v>2481.810506693462</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O14" t="n">
-        <v>3461.990173263768</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P14" t="n">
-        <v>4290.300048097164</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q14" t="n">
-        <v>4836.798834055759</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.798834055759</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T14" t="n">
-        <v>4616.731606928797</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U14" t="n">
-        <v>4357.509304245814</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>3994.89235417964</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W14" t="n">
-        <v>3590.036899590674</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X14" t="n">
-        <v>3170.894436169985</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y14" t="n">
-        <v>2762.608312469638</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I15" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1102.064021433509</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1087.134188067672</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C16" t="n">
-        <v>914.5724765508968</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D16" t="n">
-        <v>748.6944837524195</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E16" t="n">
-        <v>578.9364800031568</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F16" t="n">
-        <v>402.229425964913</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G16" t="n">
-        <v>236.6381509907407</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111518</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458048</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>458.0741164169404</v>
+        <v>463.598980006607</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849015</v>
+        <v>881.8088617745681</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955481</v>
       </c>
       <c r="N16" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113126</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338907</v>
       </c>
       <c r="P16" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309249</v>
       </c>
       <c r="Q16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173581</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173581</v>
       </c>
       <c r="S16" t="n">
-        <v>2713.395586583915</v>
+        <v>2559.679081471578</v>
       </c>
       <c r="T16" t="n">
-        <v>2467.51614016237</v>
+        <v>2313.799635050033</v>
       </c>
       <c r="U16" t="n">
-        <v>2189.083139415475</v>
+        <v>2035.366634303138</v>
       </c>
       <c r="V16" t="n">
-        <v>1902.127631285905</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W16" t="n">
-        <v>1751.764232139138</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X16" t="n">
-        <v>1506.372477472551</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y16" t="n">
-        <v>1278.952806786659</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2525.22255580238</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2087.080082985804</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1651.170298160248</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1217.395553318543</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>789.5281237277507</v>
+        <v>793.2056155771611</v>
       </c>
       <c r="G17" t="n">
-        <v>388.1302923510145</v>
+        <v>391.807784200425</v>
       </c>
       <c r="H17" t="n">
-        <v>99.00013779423081</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>98.58334842137081</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J17" t="n">
-        <v>533.8380358742887</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K17" t="n">
-        <v>1368.188327832466</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L17" t="n">
-        <v>2443.248294085326</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M17" t="n">
-        <v>2443.248294085326</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N17" t="n">
-        <v>2574.179093706243</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O17" t="n">
-        <v>3554.35876027655</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P17" t="n">
-        <v>4382.668635109946</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q17" t="n">
-        <v>4929.167421068541</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R17" t="n">
-        <v>4929.167421068541</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S17" t="n">
-        <v>4929.167421068541</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T17" t="n">
-        <v>4709.100193941579</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U17" t="n">
-        <v>4546.423118063463</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4183.80616799729</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3778.950713408323</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3359.808249987634</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2951.522126287287</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.7550934126637</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>498.2986322493059</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D18" t="n">
-        <v>403.2083433958592</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E18" t="n">
-        <v>309.0879287228129</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F18" t="n">
-        <v>225.7040903389745</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>140.3190006051584</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H18" t="n">
-        <v>98.58334842137081</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I18" t="n">
-        <v>124.6470215818284</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>449.2053465480407</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1103.911393173765</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1644.65033180584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
-        <v>1761.82310990018</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S18" t="n">
-        <v>1698.367672348563</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T18" t="n">
-        <v>1568.189028679164</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U18" t="n">
-        <v>1391.852481679133</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V18" t="n">
-        <v>1192.734963741132</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W18" t="n">
-        <v>1007.412209474326</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X18" t="n">
-        <v>852.544773713206</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y18" t="n">
-        <v>726.0589944924268</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1037.739334723626</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>865.1776232068518</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>699.2996304083745</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>529.5416266591117</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>352.8345726208679</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>187.2432976466955</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H19" t="n">
-        <v>187.2432976466955</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I19" t="n">
-        <v>98.58334842137081</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J19" t="n">
-        <v>185.1630335860607</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>459.9214881571963</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L19" t="n">
-        <v>878.1313699251574</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>1337.61523710607</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>1779.874040263715</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>2199.543289489496</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>2547.050183459838</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>2715.242958324171</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2693.825137029542</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2534.583768327539</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2288.704321905994</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2010.2713211591</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.31581302953</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1510.550760076106</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1265.159005409518</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1037.739334723626</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5750,16 +5750,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5777,25 +5777,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>949.5782250957668</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309358</v>
+        <v>777.0165135789917</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324585</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831958</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5911,7 +5911,7 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K22" t="n">
-        <v>463.5989800066051</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L22" t="n">
         <v>881.8088617745661</v>
@@ -5932,28 +5932,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303137</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167233</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1141.396843814754</v>
       </c>
     </row>
     <row r="23">
@@ -5969,19 +5969,19 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D23" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E23" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -5996,28 +5996,28 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S23" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T23" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U23" t="n">
         <v>4550.100609912873</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1041.416826573035</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>868.8551150562604</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>702.9771222577831</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>533.2191185085204</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.608003005139</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1635.626090461861</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1390.234335795274</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1162.814665109383</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477109</v>
+        <v>811.7546776883869</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309358</v>
+        <v>639.1929661716118</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731345</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>303.5569696238718</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>303.5569696238718</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>137.9656946496995</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6403,31 +6403,31 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q28" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173574</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173574</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471571</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050026</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303131</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173562</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759853</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093266</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407374</v>
       </c>
     </row>
     <row r="29">
@@ -6452,43 +6452,43 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P29" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q29" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T29" t="n">
         <v>4809.322912595856</v>
@@ -6531,10 +6531,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G30" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H30" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I30" t="n">
         <v>128.3245134312372</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477109</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309358</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324586</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831958</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F31" t="n">
-        <v>267.8521152449521</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G31" t="n">
         <v>102.2608402707797</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I31" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J31" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K31" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L31" t="n">
         <v>881.8088617745661</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6707,7 +6707,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6832,7 +6832,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477105</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
         <v>780.1951658309357</v>
@@ -6880,7 +6880,7 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
         <v>2700.681281130895</v>
@@ -6892,7 +6892,7 @@
         <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832885</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
         <v>1617.386921419177</v>
@@ -6917,16 +6917,16 @@
         <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6935,28 +6935,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N35" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
         <v>5113.042013538981</v>
@@ -7017,22 +7017,22 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1133.616358467827</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C37" t="n">
-        <v>780.1951658309358</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D37" t="n">
-        <v>614.3171730324585</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831958</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F37" t="n">
-        <v>267.852115244952</v>
+        <v>126.8499155856325</v>
       </c>
       <c r="G37" t="n">
         <v>102.2608402707796</v>
@@ -7105,7 +7105,7 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1783.551532113123</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
         <v>2203.220781338905</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V37" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W37" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X37" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y37" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7160,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004236</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7217,7 +7217,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>1181.319000882662</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>1008.757289365887</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>842.8792965674095</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>673.1212928181467</v>
       </c>
       <c r="F40" t="n">
         <v>496.4142387799021</v>
@@ -7354,28 +7354,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.411126173567</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1618.529374268236</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1373.137619601648</v>
+        <v>1373.137619601649</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1373.137619601649</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2520.183334455171</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2082.040861638595</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.131076813039</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1212.356331971335</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>790.9414544640438</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G41" t="n">
-        <v>389.5436230873078</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H41" t="n">
-        <v>100.413468530524</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I41" t="n">
-        <v>100.413468530524</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>535.6681559834419</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1370.01844794162</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2445.078414194479</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2496.531034410847</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O41" t="n">
-        <v>3476.710700981153</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>4305.020575814549</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4851.519361773144</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>5020.6734265262</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>5020.6734265262</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>4800.606199399239</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>4541.383896716256</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4178.766946650082</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3773.911492061115</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3354.769028640426</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2946.482904940079</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>606.5852135218169</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>500.1287523584591</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>405.0384635050124</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>310.9180488319661</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>227.5342104481277</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>142.1491207143116</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>100.413468530524</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>126.4771416909816</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>451.0354666571939</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1131.768986727571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1131.768986727571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1131.768986727571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1131.768986727571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1131.768986727571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1131.768986727571</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1646.480451914993</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1763.653230009333</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1700.197792457716</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1570.019148788318</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1393.682601788286</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1194.565083850285</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1009.242329583479</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>854.3748938223592</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>727.88911460158</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.4894846535083</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C43" t="n">
-        <v>615.9277731367332</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D43" t="n">
-        <v>612.469801292203</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="E43" t="n">
-        <v>442.7117975429402</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>266.0047435046964</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>100.413468530524</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>100.413468530524</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>100.413468530524</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>186.9931536952139</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>461.7516082663495</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>879.9614900343105</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1339.445357215224</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1781.704160372868</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2201.373409598649</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2548.880303568991</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2717.073078433323</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2695.655257138695</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2536.413888436692</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2290.534442015147</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U43" t="n">
-        <v>2012.101441268253</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V43" t="n">
-        <v>1725.145933138683</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W43" t="n">
-        <v>1453.119528724975</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X43" t="n">
-        <v>1207.727774058387</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y43" t="n">
-        <v>980.3081033724955</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2252.656868168567</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1814.51439535199</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1378.604610526435</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1215.548181578287</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>787.6807519874951</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>386.2829206107589</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>97.15276605397517</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>403.2461837293682</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1237.596475687546</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2312.656441940405</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2312.656441940405</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N44" t="n">
-        <v>2312.656441940405</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O44" t="n">
-        <v>3292.836108510712</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P44" t="n">
-        <v>4121.145983344108</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>4667.644769302702</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R44" t="n">
-        <v>4836.798834055759</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S44" t="n">
-        <v>4753.146960239596</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4533.079733112634</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4273.857430429651</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>3911.240480363477</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3506.385025774511</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3087.242562353822</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2678.956438653475</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>602.907721672408</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>496.4512605090503</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>401.3609716556035</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>307.2405569825572</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>223.8567185987188</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>138.4716288649027</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>122.7996498415728</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>447.3579748077851</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1128.091494878162</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1128.091494878162</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1128.091494878162</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.091494878162</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1128.091494878162</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1128.091494878162</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1642.802960065584</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1759.975738159924</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1696.520300608307</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1566.341656938909</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.005109938877</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1190.887592000876</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1005.56483773407</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>850.6974019729504</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>724.2116227521711</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>947.2320137580463</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>774.6703022412712</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>608.792309442794</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>439.0343056935312</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>262.3272516552875</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>96.73597668111518</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>183.315661845805</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>458.0741164169406</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>876.2839981849017</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1335.767865365814</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1778.026668523459</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2197.695917749241</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2545.202811719583</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2713.395586583915</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2695.15641754123</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2449.276971119686</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2170.843970372791</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1883.888462243221</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1611.862057829513</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1366.470303162925</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1139.050632477033</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,7 +7994,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -8061,7 +8061,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,22 +8137,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684626</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>72.8058955861095</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684626</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664742004</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>204.0749767191073</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>407.1525905495951</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -8617,10 +8617,10 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>205.1467494379689</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8693,13 +8693,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294894</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8924,19 +8924,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>429.2861157754766</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,7 +9006,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9170,10 +9170,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N17" t="n">
-        <v>132.2533329504217</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>583.0591140826373</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9644,7 +9644,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>842.7780726850283</v>
@@ -9881,22 +9881,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10118,10 +10118,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10592,22 +10592,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10683,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365289705</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11139,7 +11139,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>309.6062697457102</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
@@ -11303,7 +11303,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11394,7 +11394,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>268.0111327346213</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>117.7661826744414</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>69.71657238081418</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>185.1957776566207</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>227.3655273957953</v>
       </c>
       <c r="W16" t="n">
-        <v>120.4463752142722</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23780,13 +23780,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>95.57977453681885</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>58.66873794568116</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>61.36294431725513</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>139.5921776627256</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>69.71657238081367</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24610,13 +24610,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>103.1553467313986</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24649,7 +24649,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H31" t="n">
         <v>138.5031525665292</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.592177662725</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25609,10 +25609,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>140.7232059832935</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>161.9268490649766</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -25637,7 +25637,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>6.388026562666345</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25646,7 +25646,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800143</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25789,10 +25789,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>160.7958207444076</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>113.8761173587629</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>268.0111327346219</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>139.5921776627262</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>565668.6630606065</v>
+        <v>580464.7058877609</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>565668.6630606065</v>
+        <v>583128.7659413407</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>583148.7146587414</v>
+        <v>607758.2567918887</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>583148.7146587413</v>
+        <v>607758.2567918889</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>591377.5101646534</v>
+        <v>607758.2567918889</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>607758.2567918889</v>
+        <v>607758.2567918886</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>599529.461285977</v>
+        <v>607758.2567918887</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>583148.7146587414</v>
+        <v>607758.2567918889</v>
       </c>
     </row>
   </sheetData>
@@ -26314,28 +26314,28 @@
         <v>415514.1729150665</v>
       </c>
       <c r="C2" t="n">
+        <v>415514.1729150665</v>
+      </c>
+      <c r="D2" t="n">
         <v>415514.1729150666</v>
       </c>
-      <c r="D2" t="n">
-        <v>415514.1729150667</v>
-      </c>
       <c r="E2" t="n">
-        <v>391781.0209280493</v>
+        <v>408314.6277064482</v>
       </c>
       <c r="F2" t="n">
-        <v>391781.0209280492</v>
+        <v>408314.627706448</v>
       </c>
       <c r="G2" t="n">
-        <v>397309.4321605097</v>
+        <v>408314.627706448</v>
       </c>
       <c r="H2" t="n">
-        <v>408314.6277064481</v>
+        <v>408314.627706448</v>
       </c>
       <c r="I2" t="n">
         <v>408314.627706448</v>
       </c>
       <c r="J2" t="n">
-        <v>408314.627706448</v>
+        <v>408314.6277064479</v>
       </c>
       <c r="K2" t="n">
         <v>408314.627706448</v>
@@ -26350,10 +26350,10 @@
         <v>408314.627706448</v>
       </c>
       <c r="O2" t="n">
-        <v>402786.2164739876</v>
+        <v>408314.627706448</v>
       </c>
       <c r="P2" t="n">
-        <v>391781.0209280492</v>
+        <v>408314.627706448</v>
       </c>
     </row>
     <row r="3">
@@ -26366,22 +26366,22 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501589</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998303</v>
       </c>
       <c r="E3" t="n">
-        <v>234355.0220220374</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>6329.21104284953</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>12402.75497996428</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877235</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622505</v>
       </c>
       <c r="M3" t="n">
-        <v>195601.1792830677</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>212093.1194372179</v>
       </c>
       <c r="C4" t="n">
-        <v>212093.1194372179</v>
+        <v>179718.6327917067</v>
       </c>
       <c r="D4" t="n">
-        <v>212093.1194372179</v>
+        <v>173889.5352664431</v>
       </c>
       <c r="E4" t="n">
-        <v>91036.59625752567</v>
+        <v>94878.44464875283</v>
       </c>
       <c r="F4" t="n">
-        <v>91036.59625752567</v>
+        <v>94878.44464875285</v>
       </c>
       <c r="G4" t="n">
-        <v>92321.2111684851</v>
+        <v>94878.44464875286</v>
       </c>
       <c r="H4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875286</v>
       </c>
       <c r="I4" t="n">
-        <v>94878.44464875291</v>
+        <v>94878.44464875289</v>
       </c>
       <c r="J4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875282</v>
       </c>
       <c r="K4" t="n">
-        <v>94878.44464875289</v>
+        <v>94878.44464875288</v>
       </c>
       <c r="L4" t="n">
         <v>94878.44464875289</v>
       </c>
       <c r="M4" t="n">
+        <v>94878.44464875286</v>
+      </c>
+      <c r="N4" t="n">
+        <v>94878.44464875283</v>
+      </c>
+      <c r="O4" t="n">
         <v>94878.44464875289</v>
       </c>
-      <c r="N4" t="n">
-        <v>94878.44464875291</v>
-      </c>
-      <c r="O4" t="n">
-        <v>93593.82973779349</v>
-      </c>
       <c r="P4" t="n">
-        <v>91036.59625752569</v>
+        <v>94878.44464875283</v>
       </c>
     </row>
     <row r="5">
@@ -26470,19 +26470,19 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800253</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="G5" t="n">
-        <v>74923.34480024182</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26494,7 +26494,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="K5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="L5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26506,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>76314.23608319824</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>73519.34227764752</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>1804.964680916346</v>
       </c>
       <c r="C6" t="n">
-        <v>143996.2653406264</v>
+        <v>97251.5584203414</v>
       </c>
       <c r="D6" t="n">
-        <v>143996.2653406264</v>
+        <v>155884.5175368828</v>
       </c>
       <c r="E6" t="n">
-        <v>-7129.939629161265</v>
+        <v>53339.61089147034</v>
       </c>
       <c r="F6" t="n">
-        <v>227225.082392876</v>
+        <v>235694.72011252</v>
       </c>
       <c r="G6" t="n">
-        <v>223735.6651489332</v>
+        <v>235694.7201125199</v>
       </c>
       <c r="H6" t="n">
-        <v>223315.1894719384</v>
+        <v>235694.7201125199</v>
       </c>
       <c r="I6" t="n">
-        <v>235717.9444519026</v>
+        <v>235694.7201125199</v>
       </c>
       <c r="J6" t="n">
-        <v>124703.4791069124</v>
+        <v>124680.2547675298</v>
       </c>
       <c r="K6" t="n">
-        <v>235717.9444519026</v>
+        <v>182648.8654737476</v>
       </c>
       <c r="L6" t="n">
-        <v>235717.9444519026</v>
+        <v>226302.4183858974</v>
       </c>
       <c r="M6" t="n">
-        <v>40116.76516883489</v>
+        <v>83494.54917453224</v>
       </c>
       <c r="N6" t="n">
-        <v>235717.9444519025</v>
+        <v>235694.72011252</v>
       </c>
       <c r="O6" t="n">
-        <v>232878.1506529959</v>
+        <v>235694.7201125199</v>
       </c>
       <c r="P6" t="n">
-        <v>227225.082392876</v>
+        <v>235694.72011252</v>
       </c>
     </row>
   </sheetData>
@@ -26790,19 +26790,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684627</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="G4" t="n">
-        <v>1232.291855267135</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26814,7 +26814,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="K4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="L4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26826,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1255.16835663155</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1209.19970851394</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.063161046444251e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27012,37 +27012,37 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483584</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939425</v>
       </c>
       <c r="E4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>23.09214675319528</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>45.96864811761017</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483586</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939402</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483584</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939425</v>
       </c>
       <c r="M4" t="n">
-        <v>784.9038509938352</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>23.09214675319528</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>45.96864811761017</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>42.18551009668374</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27388,13 +27388,13 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
@@ -27436,16 +27436,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>73.1313020074665</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27588,19 +27588,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>156.1818662538038</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>19.73201273398772</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>113.7278999628231</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27679,10 +27679,10 @@
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>80.71087300263167</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>45.67408901728524</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,16 +27825,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>261.1767494089935</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>185.4631102447384</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,10 +27916,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>147.6279365193116</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28062,19 +28062,19 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>79.64395877249362</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28260,7 +28260,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-3.27220341698804e-13</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -28339,13 +28339,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-4.022529435979809e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-1.875832822406664e-12</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-4.022529435979809e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-4.022529435979809e-14</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.923439491971012e-12</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28579,7 +28579,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-1.125499693443999e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-1.085274399084201e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29475,7 +29475,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>-4.745772102246885e-12</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-1.193711796076968e-12</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30390,7 +30390,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>-7.866279785916069e-13</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -30694,7 +30694,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>424.2958575201043</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
-        <v>236.2898988798406</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,7 +34714,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>424.2958575201044</v>
@@ -34781,7 +34781,7 @@
         <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>358.9284720888816</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34857,22 +34857,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>369.8475292559658</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>630.4048323684626</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>72.8058955861095</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684628</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>630.4048323684626</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>30.91440664742004</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>204.0749767191073</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>407.1525905495951</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>358.9284720888814</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
@@ -35337,19 +35337,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>205.1467494379689</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>955.8742281294894</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35486,10 +35486,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,7 +35501,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35571,10 +35571,10 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35644,19 +35644,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>429.2861157754766</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>1137.102003471159</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,10 +35723,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K15" t="n">
-        <v>661.3192390158827</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908047</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960985</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35884,16 +35884,16 @@
         <v>439.6511994473919</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N17" t="n">
-        <v>132.2533329504217</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.8366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35981,7 +35981,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -36045,7 +36045,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -36130,7 +36130,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>583.0591140826373</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36282,7 +36282,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
         <v>464.1251183645586</v>
@@ -36364,7 +36364,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352456</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821489</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36908,7 +36908,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K30" t="n">
         <v>661.3192390158824</v>
@@ -36993,7 +36993,7 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M31" t="n">
         <v>464.1251183645586</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37236,7 +37236,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N34" t="n">
-        <v>446.726063795601</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512943</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908064</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37470,13 +37470,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645584</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.97234365289705</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37859,7 +37859,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37877,7 +37877,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37956,7 +37956,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,16 +38014,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>309.6062697457102</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38114,7 +38114,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>519.9105708963859</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
         <v>118.3563415094341</v>
@@ -38181,13 +38181,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>
